--- a/Input/Lotka_Volterra.xlsx
+++ b/Input/Lotka_Volterra.xlsx
@@ -168,10 +168,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.84"/>
